--- a/results/Analysis_Sensitivity/Sens.CV5.Associations/Fold-1/06_Log.M1.Scaled.Coef.xlsx
+++ b/results/Analysis_Sensitivity/Sens.CV5.Associations/Fold-1/06_Log.M1.Scaled.Coef.xlsx
@@ -422,52 +422,52 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.75 (0.56, 0.99)</t>
+          <t>0.69 (0.52, 0.91)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.007</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.91 (0.65, 1.27)</t>
+          <t>0.85 (0.77, 0.94)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.559</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.99 (0.70, 1.39)</t>
+          <t>0.93 (0.89, 0.97)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.944</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.85 (0.61, 1.20)</t>
+          <t>0.85 (0.76, 0.95)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.351</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.85 (0.61, 1.19)</t>
+          <t>0.80 (0.71, 0.91)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.336</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -479,166 +479,166 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.73 (0.55, 0.93)</t>
+          <t>0.72 (0.54, 0.94)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>0.021</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.90 (0.83, 0.97)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.008</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.97 (0.94, 1.00)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.054</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.91 (0.84, 0.98)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>0.019</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.76 (0.60, 0.96)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.022</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.83 (0.66, 1.03)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.100</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0.75 (0.59, 0.95)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.018</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.75 (0.59, 0.95)</t>
+          <t>0.88 (0.80, 0.97)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.018</t>
+          <t>0.009</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HF</t>
+          <t>Heart failure</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.43 (0.18, 0.85)</t>
+          <t>0.16 (0.05, 0.40)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.035</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.59 (0.35, 0.96)</t>
+          <t>0.75 (0.63, 0.87)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.043</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.58 (0.36, 0.89)</t>
+          <t>0.92 (0.87, 0.97)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.54 (0.31, 0.87)</t>
+          <t>0.68 (0.57, 0.81)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.018</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.58 (0.33, 0.95)</t>
+          <t>0.68 (0.53, 0.84)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.043</t>
+          <t>0.001</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>Myocardial Infarction</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.87 (0.54, 1.28)</t>
+          <t>0.32 (0.12, 0.69)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.523</t>
+          <t>0.011</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.66 (0.42, 0.99)</t>
+          <t>0.79 (0.66, 0.93)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.055</t>
+          <t>0.007</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.54 (0.35, 0.81)</t>
+          <t>0.91 (0.85, 0.96)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.63 (0.40, 0.96)</t>
+          <t>0.81 (0.68, 0.95)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.012</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.68 (0.43, 1.03)</t>
+          <t>0.72 (0.56, 0.90)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.083</t>
+          <t>0.008</t>
         </is>
       </c>
     </row>
@@ -650,52 +650,52 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.90 (0.66, 1.18)</t>
+          <t>0.55 (0.35, 0.81)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.481</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.83 (0.62, 1.11)</t>
+          <t>0.87 (0.79, 0.96)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>0.008</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.81 (0.60, 1.07)</t>
+          <t>0.96 (0.92, 1.00)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.142</t>
+          <t>0.042</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.79 (0.58, 1.06)</t>
+          <t>0.89 (0.80, 0.98)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.124</t>
+          <t>0.022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.84 (0.62, 1.12)</t>
+          <t>0.84 (0.73, 0.95)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>0.009</t>
         </is>
       </c>
     </row>
